--- a/data.xlsx
+++ b/data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,27 +485,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>69:40:0100080:30, Тверская область, г Тверь, ул Хромова, 11 217 кв. м. Свободные земли городской застройки</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69:40:0100083:15, Тверская область, г. Тверь, ул. Хромова, д. 25, 14 590 кв. м. Под многоквартирный жилой дом</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>69:40:0100083:6, Тверская обл, г Тверь, ул Хромова, д 82б, 4 415 кв. м. Под автостоянку</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>69:40:0100083:16, обл. Тверская, г. Тверь, ул. Хромова, во дворе д.№25, 234 кв. м. Под распределительную подстанцию</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>69:40:0100082:5, Тверская область, г Тверь, ул Хромова, д 21, 18 978,4 кв. м. под строительство 10-этажного 360-квартирного жилого дома</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>69:40:0100079:7, Тверская область, г. Тверь, проезд. 3-й Седова, д. 43, 519 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>69:40:0100078:138, Российская Федерация, Тверская область, городской округ город Тверь, город Тверь, проезд 3-й Седова, з/у 46а, 290 кв. м. Под индивидуальное жилищное строительство</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>69:40:0100078:8, Тверская обл, р-н Калининский, г Тверь, проезд 2-й Седова, дом 45, 520,6 кв. м. Для обслуживания и эксплуатации индивидуального жилого дома</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -522,27 +522,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>69:40:0100080:29, Тверская область, г Тверь, ул Хромова, 3 998 кв. м. под строительсво жилого дома</t>
+          <t>69:40:0100080:30, Тверская область, г Тверь, ул Хромова, 11 217 кв. м. Свободные земли городской застройки</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>69:40:0100083:11, Тверская область, г. Тверь, ул. Хромова, 1 812 кв. м. земли общего пользования</t>
+          <t>69:40:0100083:6, Тверская обл, г Тверь, ул Хромова, д 82б, 4 415 кв. м. Под автостоянку</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69:40:0100083:16, обл. Тверская, г. Тверь, ул. Хромова, во дворе д.№25, 234 кв. м. Под распределительную подстанцию</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>69:40:0100083:6, Тверская обл, г Тверь, ул Хромова, д 82б, 4 415 кв. м. Под автостоянку</t>
+          <t>69:40:0100083:13, Российская Федерация, Тверская область, г.о. город Тверь, г Тверь, ул Хромова, з/у 78а, 972 кв. м. Магазины</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>69:40:0100079:7, Тверская область, г. Тверь, проезд. 3-й Седова, д. 43, 519 кв. м. Под индивидуальное жилищное строительство</t>
+          <t>69:40:0100079:8, Тверская область, г. Тверь, проезд. Седова 3-й, д. 45, 604 кв. м. Под индивидуальный жилой дом</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>69:40:0100078:17, Тверская обл, г Тверь, проезд Седова 2-й, д 45, 48,6 кв. м. под опору ЛЭП</t>
+          <t>69:40:0100079:8, Тверская область, г. Тверь, проезд. Седова 3-й, д. 45, 604 кв. м. Под индивидуальный жилой дом</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -559,27 +564,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>69:40:0100080:30, Тверская область, г Тверь, ул Хромова, 11 217 кв. м. Свободные земли городской застройки</t>
+          <t>69:40:0100083:6, Тверская обл, г Тверь, ул Хромова, д 82б, 4 415 кв. м. Под автостоянку</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>69:40:0100083:11, Тверская область, г. Тверь, ул. Хромова, 1 812 кв. м. земли общего пользования</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69:40:0100083:22, Тверская область, г. Тверь, ул. Хромова, 522 кв. м. Свободные земли городской застройки</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>69:40:0100083:14, Тверская обл, г Тверь, ул Хромова, д 78, 5 590 кв. м. Под свободные земли городской застройки</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>69:40:0100083:13, Российская Федерация, Тверская область, г.о. город Тверь, г Тверь, ул Хромова, з/у 78а, 972 кв. м. Магазины</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>69:40:0100079:8, Тверская область, г. Тверь, проезд. Седова 3-й, д. 45, 604 кв. м. Под индивидуальный жилой дом</t>
+          <t>69:40:0100079:9, Тверская область, г. Тверь, ул. Хромова, д. 78, 691,5 кв. м. Под индивидуальное жилищное строительство</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>69:40:0100078:138, Российская Федерация, Тверская область, городской округ город Тверь, город Тверь, проезд 3-й Седова, з/у 46а, 290 кв. м. Под индивидуальное жилищное строительство</t>
+          <t>69:40:0100079:9, Тверская область, г. Тверь, ул. Хромова, д. 78, 691,5 кв. м. Под индивидуальное жилищное строительство</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -591,321 +601,1601 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>69:40:0100083:1, Тверская обл, г Тверь, ул Хромова, дом 82, 2 366,8 кв. м. Под автозаправочную станцию контейнерного типа</t>
+          <t>69:40:0100083:14, Тверская обл, г Тверь, ул Хромова, д 78, 5 590 кв. м. Под свободные земли городской застройки</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>69:40:0100083:11, Тверская область, г. Тверь, ул. Хромова, 1 812 кв. м. земли общего пользования</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>69:40:0100083:14, Тверская обл, г Тверь, ул Хромова, д 78, 5 590 кв. м. Под свободные земли городской застройки</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>69:40:0100084:28, Тверская обл, г Тверь, ул Хромова, д 23, корп 1, 3 802,3 кв. м. -</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>69:40:0100083:15, Тверская область, г. Тверь, ул. Хромова, д. 25, 14 590 кв. м. Под многоквартирный жилой дом</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>69:40:0100079:10, Тверская область, г. Тверь, ул. Хромова, д. 76, 592,6 кв. м. Для индивидуального жилищного строительства</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>69:40:0100080:15, Тверская область, г Твер</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>69:40:0100080:30, Тверская область, г Тверь, ул Хромова, 11 217 кв. м. Свободные земли городской застройки</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>69:40:0100064:8, Тверская обл, г.Тверь, пер Вагонников, дом 42/43, 594,8 кв. м. Под обслуживание и эксплуатацию жилого дома</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>69:40:0100083:14, Тверская обл, г Тверь, ул Хромова, д 78, 5 590 кв. м. Под свободные земли городской застройки</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>69:40:0100079:9, Тверская область, г. Тверь, ул. Хромова, д. 78, 691,5 кв. м. Под индивидуальное жилищное строительство</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>69:40:0100079:8, Тверская область, г. Тверь, проезд. Седова 3-й, д. 45, 604 кв. м. Под индивидуальный жилой дом</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>69:40:0100083:15, Тверская область, г. Тверь, ул. Хромова, д. 25, 14 590 кв. м. Под многоквартирный жилой дом</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>69:40:0100084:31, Тверская область, г. Тверь, 16 532 кв. м. ПОД Ж/Д ВЕТКУ НА ВАС. МОХ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69:40:0100083:17, обл. Тверская, г. Тверь, ул. Хромова, 8 403 кв. м. Земли общего пользования</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>69:40:0100080:26, Тверская область, г Тверь, ул Хромова, д 80, 1 819 кв. м. магазины</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>69:40:0100080:26, Тверская область, г Тверь, ул Хромова, д 80, 1 819 кв. м. магазины</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>69:40:0100073:63, Тверская область, г. Тверь, ул. Седова, д. 53, 570 кв. м. Под территорию детского сада с благоустройством территории</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>69:40:0100080:17, обл. Тверская, р-н Калининский, г. Тверь, Заволжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №7, обл. Тверская, р-н Калининский, г. Тверь, Заволжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №7. Категория не установлена</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>69:40:0100080:29, Тверская область, г Тверь, ул Хромова, 3 998 кв. м. под строительсво жилого дома</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>69:40:0100083:17, обл. Тверская, г. Тверь, ул. Хромова, 8 403 кв. м. Земли общего пользования</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>69:40:0100084:43, Тверская обл, г Тверь, ул Луначарского, дом 30, 17 780 кв. м. земельные участки (территории) общего пользования</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69:40:0100082:5, Тверская область, г Тверь, ул Хромова, д 21, 18 978,4 кв. м. под строительство 10-этажного 360-квартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>69:40:0100082:5, Тверская область, г Тверь, ул Хромова, д 21, 18 978,4 кв. м. под строительство 10-этажного 360-квартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>69:40:0100080:30, Тверская область, г Тверь, ул Хромова, 11 217 кв. м. Свободные земли городской застройки</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>69:40:0100083:15, обл. Тверская, г. Тверь, ул. Хромова, 14 590 кв. м. Под многоквартирный жилой дом</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>69:40:0100079:10, Тверская область, г. Тверь, ул. Хромова, д. 76, 592,6 кв. м. Для индивидуального жилищного строительства</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>69:40:0100079:9, Тверская область, г. Тверь, ул. Хромова, д. 78, 691,5 кв. м. Под индивидуальное жилищное строительство</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>69:40:0100080:2, Тверская область, г. Тверь, пер. Вагонников 1-й, д. 43, 427,4 кв. м. ЦТП-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>69:40:0100080:18, обл. Тверская, р-н Калининский, г. Тверь, Заволжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №19, обл. Тверская, р-н Калинин</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>69:40:0100083:9, Тверская обл, г Тверь, ул Хромова, 8 423 кв. м. Под жилищное строительство</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>69:40:0100083:2, обл. Тверская, р-н Калининский, г. Тверь, Заволжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №17, обл. Тверская, р-н Калининский, г. Тверь, Заволжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №17. Категория не установлена</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>69:40:0100090:9, Тверская область, 17 047 кв. м. под ж/д ветку</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69:40:0100082:18, Тверская обл, г Тверь, ул Хромова, 3 342,3 кв. м. Земли общего пользования</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>69:40:0100082:18, Тверская обл, г Тверь, ул Хромова, 3 342,3 кв. м. Земли общего пользования</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>69:40:0100083:14, Тверская обл, г Тверь, ул Хромова, д 78, 5 590 кв. м. Под свободные земли городской застройки</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>69:40:0100080:8, Тверская обл, г Тверь, ул Седова, д 55, 1 807 кв. м. адм. встроенно-пристроенное помещение</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>69:40:0100080:20, обл. Тверская, р-н Калининский, г. Тверь, Заволжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №20, обл. Тверская, р-н Калининский, г. Тверь, Заволжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №20. Категория не установлена</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>69:40:0100083:1224, Тверская область, г. Тверь, ул. Хромова, 7 692 кв. м. под жилищное строительство</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>69:40:0100083:9, Тверская обл, г Тверь, ул Хромова, 8 423 кв. м. Под жилищное строительство</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>69:40:0100119:2081, Тверская область, г. Тверь, ул. Луначарского, 5 358 кв. м. земельные участки(территории) общего пользования</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69:40:0100082:16, Тверская обл, г Тверь, ул Хромова, д 23, строение 1, 16 735 кв. м. ПОД ЖИЛОЙ ДОМ С НЕЖИЛЫМИ ПОМЕЩЕНИЯМИ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>69:40:0100083:13, Российская Федерация, Тверская область, г.о. город Тверь, г Тверь, ул Хромова, з/у 78а, 972 кв. м. Магазины</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>69:40:0100083:1300, Тверская область, Тверь г, ориентир МЖК ул. Хромова, д.25 А, 111 кв. м. Под свободные земли городской застройки</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>69:40:0100080:23, Тверская обл, г Тверь, ул Седова, дом 53, 138 кв. м. Земли городского запаса</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>69:40:0100080:28, Тверская область, г Тверь, пер Вагонников 1-й, д 43, 12 851 кв. м. Под жилой дом с нежилыми помещениями</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>69:40:0100080:16, Тверская область, г Тверь, ул Вагонников 1-я, д 46, 7 222,9 кв. м. ПОД СТРОИТЕЛЬСТВО ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>69:40:0100083:19, Тверская область, г. Тверь, ул. Хромова, д. 25, к. 1, 1 375 кв. м. Под строительство многоквартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>69:40:0100084:39, Тверская область, г. Тверь, ул. Луначарского, д. 30, 6 855 кв. м. Под строительство многоквартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69:40:0100084:31, Тверская область, г. Тверь, 16 532 кв. м. ПОД Ж/Д ВЕТКУ НА ВАС. МОХ</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>69:40:0100083:14, Тверская обл, г Тверь, ул Хромова, д 78, 5 590 кв. м. Под свободные земли городской застройки</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>69:40:0100073:16, Тверская обл, г Тверь, проезд Седова 2-й, д 44, 550,8 кв. м. ДЛЯ ОБСЛУЖИВАНИЯ И ЭКСПЛУАТАЦИИ ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>69:40:0100080:28, Тверская область, г Тверь, пер Вагонников 1-й, д 43, 12 851 кв. м. Под жилой дом с нежилыми помещениями</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>69:40:0100064:3, Тверская область, г. Тверь, ул. Пригородная, д. 40, 597 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>69:40:0100081:9, Тверская область, г Тверь, ул Хромова, д 84а, 752 кв. м. обслуживание автотранспорта</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>69:40:0100083:20, Тверская область, г. Тверь, ул. Хромова, 9 296 кв. м. Земли общего пользования</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>69:40:0100084:40, Тверская обл, г Тверь, ул Луначарского, д 30, 1 086 кв. м. Свободные земли городской застройки</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69:40:0100084:28, Тверская обл, г Тверь, ул Хромова, д 23, корп 1, 3 802,3 кв. м. -</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>69:40:0100083:17, обл. Тверская, г. Тверь, ул. Хромова, 8 403 кв. м. Земли общего пользования</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>69:40:0100073:17, Тверская область, г Тверь, проезд 2-й Седова, д 46, 532,8 кв. м. ДЛЯ ЭКСПЛУАТАЦИИ И ОБСЛУЖИВАНИЯ ИНДИВИДУАЛЬНОГО ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>69:40:0100080:1286, Российская Федерация, Тверская область, городской округ город Тверь, город Тверь, ул Седова, д 53, 586 кв. м. Земли городского запаса</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>69:40:0100082:5, Тверская область, г Тверь, ул Хромова, д 21, 18 978,4 кв. м. под строительство 10-этажного 360-квартирного жилого дома</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>69:40:0100064:4, Тверская область, г. Тверь, ул. Пригородная, д. 42, 583 кв. м. Для индивидуального жилищного строительства</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>69:40:0100081:12, обл.Тверская, г.Тверь, автокооператив № 4 Заволжского района, 13 277 кв. м. Для обслуживания гаражей</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>69:40:0100083:21, Тверская область, г. Тверь, ул. Хромова, 1 623 кв. м. Свободные земли городской застройки</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>69:40:0100084:41, Тверская область, г Тверь, ул Луначарского, д 30, 6 526 кв. м. Под земли общего пользования</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69:40:0100084:30, Тверская область, г. Тверь, ул. Луначарского, 4 821 кв. м. Для строительства комплекса автосервисного обслуживания</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>69:40:0100079:4, Тверская обл, г Тверь, проезд 3-ий Седова, дом 37, 520 кв. м. Для обслуживания и эксплуатации жилого дома</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>69:40:0100073:21, Тверская обл, г Тверь, проезд Седова 2-й, 6 030 кв. м. Земли городского запаса</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>69:40:0100034:6, Тверская область, г. Тверь, пер. 1-й Вагонников, д. 43, 13 414 кв. м. Под спортивно-оздоровительный комплекс с гаражами в нижнем уровне</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>69:40:0100064:6, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ ПЕР. ВАГОННИКОВ НОМЕР ДОМА 46, 614,7 кв. м. ДЛЯ ОБСЛУЖИВАНИЯ И ЭКСПЛУАТАЦИИ ИНДИВИДУАЛЬНОГО ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>69:40:0100081:52, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ А/К № 4 НОМЕР ДОМА 25, 25 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>69:40:0100083:1224, Тверская область, г. Тверь, ул. Хромова, 7 692 кв. м. под жилищное строительство</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>69:40:0100084:48, Тверская область, г. Тверь, ул. Луначарского, д. 32, 3 701 кв. м. Под эксплуатацию многоквартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69:40:0100084:43, Тверская обл, г Тверь, ул Луначарского, дом 30, 17 780 кв. м. земельные участки (территории) общего пользования</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>69:40:0100079:5, Тверская область, г Тверь, проезд Седова 3-й, д 39, 527 кв. м. Под индивидуальный жилой дом</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>69:40:0100073:22, Тверская обл, г Тверь, проезд Седова 2-й, д 46, 62,85 кв. м. под опору ЛЭП</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>69:40:0100034:35, Тверская обл, г Тверь, 18 751,8 кв. м. Под землями общего пользования</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>69:40:0100064:7, Тверская область, г. Тверь, пер. Вагонников, д. 44, 614 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>69:40:0100081:56, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ А/К № 4 НОМЕР ДОМА 302, 29 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>69:40:0100083:18, Тверская область, г.о. город Тверь, г Тверь, ул Хромова, д. 25 к. 2, 2 168 кв. м. Под строительство многоквартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>69:40:0100084:12, обл. Тверская, р-н Калининский, г. Тверь, Завалжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №15, обл. Тверская, р-н Калининский, г. Тверь, Завалжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №15. Категория не установлена</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69:40:0100084:19, Тверская область, г. Тверь, 2 039,2 кв. м. Земельные участки (территории) общего пользования</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>69:40:0100079:6, Тверская область, г. Тверь, проезд. Седова 3-й, д. 41, 527,8 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>69:40:0100078:6, Тверская область, г Тверь, проезд Седова 2-й, д 41, 509 кв. м. Под индивидуальный жилой дом</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>69:40:0100080:4, обл Тверская, р-н Калининский, г Тверь, пер Вагонников 1-й, 1 238,9 кв. м. Под КНС №13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>69:40:0100064:9, Тверская область, г. Тверь, ул. Совхозная, д. 41, 618,8 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>69:40:0100081:61, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ А/К № 4 НОМЕР ДОМА 131, 22 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>69:40:0100090:9, Тверская область, 17 047 кв. м. под ж/д ветку</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>69:40:0100084:32, Тверская область, г Тверь, ул Луначарского, дом 34, 5 505 кв. м. Под строительство жилого дома</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69:40:0100084:23, Тверская область, г. Тверь, ул. Луначарского, д. 15, 2 358,4 кв. м. Под автозаправочную станцию стационарного типа</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>69:40:0100079:11, Тверская область, г. Тверь, ул. Хромова, д. 74, 581,3 кв. м. Под индивидуальное жилищное строительство</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>69:40:0100080:15, Тверская область, г Тверь, ул Седова, д 53, 5 200 кв. м. образование и просвещение</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>69:40:0100080:2, Тверская область, г. Тверь, пер. Вагонников 1-й, д. 43, 427,4 кв. м. ЦТП-9</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>69:40:0100082:16, Тверская обл, г Тверь, ул Хромова, д 23, строение 1, 16 735 кв. м. ПОД ЖИЛОЙ ДОМ С НЕЖИЛЫМИ ПОМЕЩЕНИЯМИ</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>69:40:0100080:26, Тверская область, г Тверь, ул Хромова, д 80, 1 819 кв. м. магазины</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>69:40:0100080:26, Тверская область, г Тверь, ул Хромова, д 80, 1 819 кв. м. магазины</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>69:40:0100080:2, Тверская область, г. Тверь, пер. Вагонников 1-й, д. 43, 427,4 кв. м. ЦТП-9</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>69:40:0100083:15, Тверская область, г. Тверь, ул. Хромова, д. 25, 14 590 кв. м. Под многоквартирный жилой дом</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>69:40:0100082:5, Тверская область, г Тверь, ул Хромова, д 21, 18 978,4 кв. м. под строительство 10-этажного 360-квартирного жилого дома</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>69:40:0100080:30, Тверская область, г Тверь, ул Хромова, 11 217 кв. м. Свободные земли городской застройки</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>69:40:0100078:7, Тверская обл, г. Тверь, проезд. 2-Й СЕДОВА, дом 43, 514,6 кв. м. Под обслуживание и эксплуатацию жилого дома</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>69:40:0100080:22, Тверская обл, г Тверь, пер Вагонников 1-й, д 43, запас городских земель, 1 819 кв. м. Земли городского запаса</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>69:40:0100083:17, обл. Тверская, г. Тверь, ул. Хромова, 8 403 кв. м. Земли общего пользования</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>69:40:0100083:14, Тверская обл, г Тверь, ул Хромова, д 78, 5 590 кв. м. Под свободные земли городской застройки</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>69:40:0100083:6, Тверская обл, г Тверь, ул Хромова, д 82б, 4 415 кв. м. Под автостоянку</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>69:40:0100082:5, Тверская область, г Тверь, ул Хромова, д 21, 18 978,4 кв. м. под строительство 10-этажного 360-квартирного жилого дома</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>69:40:0100064:10, Тверская обл, г Тверь, ул Совхозная, дом 39, 596,2 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>69:40:0100081:75, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ А/К № 4 НОМЕР ДОМА 92, 25 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>69:40:0100119:2081, Тверская область, г. Тверь, ул. Луначарского, 5 358 кв. м. земельные участки(территории) общего пользования</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>69:40:0100084:9, обл. Тверская, р-н Калининский, г. Тверь, Завалжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №14, обл. Тверская, р-н Калининский, г. Тверь, Завалжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №14. Категория не установлена</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69:40:0100084:151, Тверская область, г. Тверь, ул. Луначарского, д. 18, 9 899 кв. м. объекты торговли</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>69:40:0100079:12, Тверская область, г. Тверь, ул. Хромова, д. 72, 592,4 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>69:40:0100078:8, Тверская обл, р-н Калинин</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>69:40:0100080:1279, Российская Федерация, Тверская область, г. Тверь, пер. 1-й Вагонников, 219 кв. м. коммунальное обслуживание</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>69:40:0100064:11, Тверская обл, г.Тверь, ул.Совхозная, д.37, 723 кв. м. ПОД ИНДИВИДУАЛЬНОЕ ЖИЛИЩНОЕ СТРОИТЕЛЬСТВО</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>69:40:0100081:76, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ КООПЕРАТИВ №4 ПО СТРОИТЕЛЬСТВУ И ЭКСПЛУАТАЦИИ КОЛЛЕКТИВНЫХ НОМЕР ДОМА 94, 26 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>69:40:0100119:50, Тверская область, г. Тверь, ул. Ударная, д. 9, 44 569 кв. м. Под комплексное жилищное строительство для организации земель общего пользования (проездов)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>69:40:0100084:20, Тверская область, г Тверь, ул Луначарского, дом 26, 7 669,9 кв. м. под строительство 5-ти этажного 102-квартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69:40:0100084:25, Тверская область, г. Тверь, ул. Луначарского, д. 11, 11 703 кв. м. Магазины</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>69:40:0100079:13, Тверская область, г. Тверь, ул. Хромова, д. 70, 572,1 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>69:40:0100078:10, Тверская обл, г Тверь, проезд 3-й Седова, дом 44, 528 кв. м. Под индивидуальный жилой дом</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>69:40:0100034:3, Тверская область, г. Тверь, ул. П. Савельевой, 17 030 кв. м. Под земли общего пользования</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>69:40:0100064:1, обл. Тверская, г. Тверь, ул. Пригородная и 1-й пер. Вагонников, 36/47, 598,2 кв. м. Для эксплуатации и обслуживания индивидуального жилого дома</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>69:40:0100081:90, Тверская обл, г Тверь, кооператив №4 по строительству и эксплуатации коллективных гаражей, стоянок для автомобилей индивидуальных владельцев, гараж №471, 26 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>69:40:0100119:63, Тверская область, г Тверь, ул Луначарского, 3 280 кв</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>69:40:0100084:37, Тверская область, г. Тверь, ул. Луначарского, 5 030 кв. м. ПОД ПРОЕКТИРОВАНИЕ И СТРОИТЕЛЬСТВО МНОГОЭТАЖНОЙ ЖИЛОЙ ЗАСТРОЙКИ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69:40:0100084:44, Тверская обл., г. Тверь, ул. Луначарского, д.16, 6 471 кв. м. Под строительство кирпичных гаражей</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>69:40:0100079:2, Тверская область, г Тверь, пр 3-й Седова, д 33, 518,4 кв. м. ДЛЯ ОБСЛУЖИВАНИЯ И ЭКСПЛУАТАЦИИ ИНДИВИДУАЛЬНОГО ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>69:40:0100078:11, Тверская область, г. Тверь, проезд. 3-Й Седова, д. 42, 530,1 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>69:40:0100034:30, Тверская обл, г Тверь, ул Планёрная, д 3, 1 864,2 кв. м. ПОД ЗЕМЛИ ОБЩЕГО ПОЛЬЗОВАНИЯ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>69:40:0100064:2, Тверская область, г. Тверь, ул. Пригородная, д. 38, 752 кв. м. под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>69:40:0100081:98, обл. Тверская, г. Тверь, автокооператив №4 Заволжского района, гараж № 516, 25 кв. м. Под гараж</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>69:40:0000000:6211, Российская Федерация, Тверская обл., городской округ город Тверь, ул. Луначарского, д. 34, 9 547 кв. м. Под строительство многоквартирных жилых домов, под строительство многоквартирного жилого дома, под строительство РП и ТП</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>69:40:0100084:92, Тверская область, г. Тверь, ул. Луначарского, 25 754 кв. м. Под земли общего пользования</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69:40:0100084:1230, Тверская область, г. Тверь, ул. Луначарского, д. 16, 24 кв. м. Под строительство кирпичных гаражей</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>69:40:0100079:3, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ ПР. 3-Й СЕДОВА НОМЕР ДОМА 35, 536,8 кв. м. Под индивидуальный жилой дом</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>69:40:0100082:16, Тверская обл, г Тверь, ул Хромова, д 23, строение 1, 16 735 кв. м. ПОД ЖИЛОЙ ДОМ С НЕЖИЛЫМИ ПОМЕЩЕНИЯМИ</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>69:40:0100079:4, Тверская обл, г Тверь, проезд 3-ий Седова, дом 37, 520 кв. м. Для обслуживания и эксплуатации жилого дома</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>69:40:0100083:17, обл. Тверская, г. Тверь, ул. Хромова, 8 403 кв. м. Земли общего пользования</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>69:40:0100079:5, Тверская область, г Тверь, проезд Седова 3-й, д 39, 527 кв. м. Под индивидуальный жилой дом</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>69:40:0100082:16, Тверская обл, г Тверь, ул Хромова, д 23, строение 1, 16 735 кв. м. ПОД ЖИЛОЙ ДОМ С НЕЖИЛЫМИ ПОМЕЩЕНИЯМИ</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>69:40:0100079:6, Тверская область, г. Тверь, проезд. Седова 3-й, д. 41, 527,8 кв. м. Под индивидуальное жилищное строительство</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>69:40:0100084:28, Тверская обл, г Тверь, ул Хромова, д 23, корп 1, 3 802,3 кв. м. -</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>69:40:0100079:11, Тверская область, г. Тверь, ул. Хромова, д. 74, 581,3 кв. м. Под индивидуальное жилищное строительство</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>69:40:0100084:30, Тверская область, г. Тверь, ул. Луначарского, 4 821 кв. м. Для строительства комплекса автосервисного обслуживания</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>69:40:0100079:12, Тверская область, г. Тверь, ул. Хромова, д. 72, 592,4 кв. м. Под индивидуальное жилищное строительство</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>69:40:0100078:17, Тверская обл, г Тверь, проезд Седова 2-й, д 45, 48,6 кв. м. под опору ЛЭП</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>69:40:0100034:43, Российская Федерация,Т</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>69:40:0100064:12, Тверская область, г. Тверь, ул. Совхозная, д. 35/43, 606 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>69:40:0100081:111, Тверская обл, г Тверь, тер А/к N4 (1-я Вагонников), гараж 276, 24 кв. м. Под гараж</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>69:40:0000000:6213, Российская Федерация, Тверская обл., городской округ город Тверь, ул. Луначарского, д. 34, 160 кв. м. Под строительство многоквартирных жилых домов, под строительство многоквартирного жилого дома, под строительство РП и ТП</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>69:40:0100084:154, Тверская область, г. Тверь, ул. Луначарского, д. 26, 6 640 кв. м. Под обслуживание и эксплуатацию многоквартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69:40:0100084:1245, Тверская область, г. Тверь, ул. Луначарского, д. 16, 25 кв. м. Под строительство кирпичных гаражей</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>69:40:0100079:14, Тверская область, г Тверь, ул Хромова, д 68, 593,1 кв. м. Для обслуживания и эксплуатации жилого дома</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>69:40:0100078:137, установлено относительно ориентира, расположенного за пределами участка.Почтовый адрес ориентира: Тверская область, г Тверь, проезд Седова 3-й, д 46, 289 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>69:40:0100054:15, Российская Федерация, Тверская область, город Тверь г.о., г Тверь, ул. Северная, д. 4, 1 028 кв. м. ИНДИВИДУАЛЬНЫЕ ЖИЛЫЕ ДОМА</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>69:40:0100064:13, Тверская область, г. Тверь, пер. Вагонников 1-й, д. 45, 596,9 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>69:40:0100081:122, Тверская область, г Тверь, тер А/к N4 (1-я Вагонников), гараж 441, 25 кв. м. Под строительство гаража</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>69:40:0000000:6214, Российская Федерация, Тверская обл., городской округ город Тверь, ул. Луначарского, д. 34, 4 069 кв. м. Под строительство многоквартирных жилых домов, под строительство многоквартирного жилого дома, под строительство РП и ТП</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>69:40:0100120:3, Тверская область, г. Тверь, ул. Веселова, 426 116,5 кв. м. Под учебный центр</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69:40:0100084:1247, Тверская область, г.Тверь, ул.Луначарского, д.16, 26 кв. м. под строительство кирпичных гаражей</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>69:40:0100079:15, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ УЛ. ХРОМОВА НОМЕР ДОМА 66, 581,8 кв. м. ДЛЯ ИНДИВИДУАЛЬНОГО ЖИЛИЩНОГО СТРОИТЕЛЬСТВА</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>69:40:0100079:7, Тверская область, г. Тверь, проезд. 3-й Седова, д. 43, 519 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>69:40:0100054:17, Тверская область, г. Тверь, пер. 1-й Вагонников, д. 28, 859 кв. м. индивидуальный жилой дом</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>69:40:0100056:6, Тверская обл, г Тверь, ул Пригородная, дом 4, 1 010,1 кв. м. Под индивидуальный жилой дом</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>69:40:0100081:173, обл. Тверская, г. Тверь, автокооператив №4 Заволжского района, гараж № 54, 17 кв. м. Под строительство гаража</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>69:40:0100119:61, Тверская область, г. Тверь, ул. Хромова, д. 27, корп. 1, 3 101 кв. м. Под обслуживание и эксплуатацию многоквартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>69:40:0100120:499, Тверская область, г Тверь, ул Веселова, 431 754,1 кв. м. Под учебный центр</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69:40:0100084:1375, Тверская область, г. Тверь, ул. Луначарского, д. 16, 527 кв. м. Под строительство кирпичных гаражей</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>69:40:0100079:16, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ УЛ. ХРОМОВА НОМЕР ДОМА 64, 583,1 кв. м. Под индивидуальный жилой дом</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>69:40:0100073:13, Тверская область, г. Тверь, проезд. 2-й Седова, д. 38, 783 кв. м. Для обслуживания и эксплуатации доли жилого строения</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>69:40:0100054:19, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ УЛ. ПЛАНЕРНАЯ НОМЕР ДОМА 5, 958 кв. м. ДЛЯ ЭКСПЛУАТАЦИИ И ОБСЛУЖИВАНИЯ ИНДИВИДУАЛЬНОГО ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>69:40:0100056:7, Тверская область, г Тверь, ул Пригородная, д 2/50, 596 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>69:40:0100081:174, Тверская обл, г Тверь, а/к N4 (1-я Вагонников) Заволжского района, гараж 93, 16,5 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>69:40:0100119:64, Тверская область, г. Тверь, ул. Луначарского, 798 кв. м. Свободные земли городской застройки</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>69:40:0100120:1, Тверская область, г. Тверь, ул. Веселова, д. 27, 115 926 кв. м. Для строительства складов военторга № 531</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>69:40:0100084:1791, Российская Федерация, Тверская область, г Тверь, ул Луначарского, д 16, гараж 48, 23 кв. м. Под строительство кирпичных гаражей</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>69:40:0100082:3, Тверская область, р-н. Калининский, г. Тверь, ул. Хромова, д. 19-Б, 836,5 кв. м. Под магазин</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>69:40:0100073:15, Тверская область, городской округ город Тверь, город Тверь, проезд 2-й Седова, дом 42, 1 118,9 кв. м. под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>69:40:0100054:22, Тверская область, г. Тверь, ул. Планерная, д. 1, 1 473 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>69:40:0100056:8, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ ПЕР. 1-ЫЙ ВАГОННИКОВ НОМЕР ДОМА 48, 599,2 кв. м. ПОД ОБСЛУЖИВАНИЕ И ЭКСПЛУАТАЦИЮ ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>69:40:0100081:175, Тверская область обл., г. Тверь, а/к №4 Заволжского района, 23 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>69:40:0100119:65, Тверская область, г. Тверь, ул. 2-я Красина, д. 82, 1 447 кв. м. Под строительство многоквартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>69:40:0100082:8, Тверская область, г. Тверь, ул. Хромова, 6 654,9 кв. м. ЗЕМЛИ ОБЩЕГО ПОЛЬЗОВАНИЯ ВНЕ КВАРТАЛА ЗАСТРОЙКИ (ТРОТУАР)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>69:40:0100073:62, Тверская область, г. Тверь, ул. Седова, д. 53, 4 600 кв. м. Под территорию детского сада с благоустройством территории</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>69:40:0100054:24, Тверская область, г. Тверь, ул. Планерная, д. 3, 515 кв. м. Для эксплуатации и обслуживания индивидуального жилого дома</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>69:40:0100056:9, Тверская область, г. Тверь, пер. Вагонников 1-й, д. 46, 599 кв. м. Для обслуживания и эксплуатации одного жилого дома</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>69:40:0100081:186, обл Тверская, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 91, 21 кв. м. Под строительство гаража</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>69:40:0100084:92, Тверская область, г. Тверь, ул. Луначарского, 25 754 кв. м. Под земли общего пользования</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>69:40:0100082:10, Тверская обл, г Тверь, ул Хромова, д 19, 8 640,3 кв. м. для завершения строительства 320-квартирного 10-этажного жилого дома</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>69:40:0100073:89, Тверская область, г Тверь, проезд Седова 2-й, д 40, 1 025 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>69:40:0100054:25, Тверская область, г Тверь, ул Планерная, д 3а, 515 кв. м. Для эксплуатации и обслуживания индивидуального жилого дома</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>69:40:0100057:16, Обл.Тверская, г. Тверь, ул. Пригородная и 1-й пер. Вагонников, 1/52, 558,9 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>69:40:0100081:271, Тверская обл, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 285, 21 кв. м. ДЛЯ ЭКСПЛУАТАЦИИ И ОБСЛУЖИВАНИЯ ГАРАЖА</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>69:40:0100119:6, обл. Тверская, р-н Калининский, г. Тверь, Завалжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №16, обл. Тверская, р-н Калининский, г. Тверь, Завалжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №16. Категория не установлена</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>69:40:0100082:12, Тверская область, г. Тверь, ул. Хромова, д. 21, 599 кв. м. магазины</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>69:40:0100078:4, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ ПР. 2-Й СЕДОВА НОМЕР ДОМА 37, 518,9 кв. м. ДЛЯ ОБСЛУЖИВАНИЯ И ЭКСПЛУАТАЦИИ ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>69:40:0100034:51, Тверская обл, г Тверь, ул Планерная, дом 7, 11 128 кв. м. дошкольное, началльное и среднее общее образовнаие</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>69:40:0100057:17, Тверская область, г. Тверь, ул. Пригородная, д. 3, 989 кв. м. Для индивидуального жилищного строительства</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>69:40:0100081:280, обл Тверская, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 283, 22 кв. м. Под строительство гаража</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>69:40:0100119:66, Тверская область, г. Тверь, ул. 2-я Красина, д. 80, 3 944 кв. м. Под обслуживание и эксплуатацию многоквартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>69:40:0100077:7, Тверская обл, р-н Калининский, г Тверь, ул Хромова, дом 62, 570,5 кв. м. Для эксплуатации и обслуживания индивидуального жилого дома</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>69:40:0100078:5, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ ПР. 2-Й СЕДОВА НОМЕР ДОМА 39, 514,4 кв. м. ПОД ИНДИВИДУАЛЬНОЕН ЖИЛИЩНОЕ СТРОИТЕЛЬСТВО</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>69:40:0100034:4213, Российская Федерация, Тверская область, городской округ г.Тверь, г.Тверь, ул. Планерная, 7 369 кв. м. многоэтажная жилая застройка (высотная застройка)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>69:40:0100056:5, Тверская область, г Тверь, ул Пригородная, д 6, 982,3 кв. м. ДЛЯ ОБСЛУЖИВАНИЯ И ЭКСПЛУАТАЦИИ ИНДИВИДУАЛЬНОГО ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>69:40:0100081:301, обл Тверская, р-н Калининский, г. Тверь, ул. 1-я Вагонников, автогаражный кооператив №4 Заволжского района, гараж №512, 21 кв. м. Для гаражного строительства</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>69:40:0100120:3, Тверская область, г. Тверь, ул. Веселова, 426 116,5 кв. м. Под учебный центр</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>69:40:0100077:9, Тверская обл, г Тверь, ул Хромова, д 58, 579,3 кв. м. под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>69:40:0100078:12, Тверская область, г Тверь, проезд Седова 3-й, д 40, 521 кв. м. ДЛЯ ОБСЛУЖИВАНИЯ И ЭКСПЛУАТАЦИИ ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>69:40:0100054:1, Тверская область, г. Тверь, ул. Планерная, д. 11, 932,3 кв. м. под индивидуальный жилой дом</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>69:40:0100057:2, Тверская область, г Тверь, ул Пригородная, д 7, 967,1 кв. м. ПОД ОБСЛУЖИВАНИЕ И ЭКСПЛУАТАЦИЮ ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>69:40:0100081:13, обл. Тверская, г. Тверь, автокооператив № 4 Заволжского района, гараж № 102, 20 кв. м. Под гараж</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>69:40:0100120:499, Тверская область, г Тверь, ул Веселова, 431 754,1 кв. м. Под учебный центр</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>69:40:0100077:17, Тверская область, г. Тверь, ул. Хромова, д. 60, 191 кв. м. Для обслуживания и эксплуатации индивидуального жилого дома</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>69:40:0100078:13, Тверская область, г. Тверь, проезд. 3-й Седова, д. 38, 528,9 кв. м. Под индивидуальный жилой дом</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>69:40:0100054:20, Тверская область, г. Тверь, ул. Планерная, д. 7, 980 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>69:40:0100057:14, Тверская обл, г Тверь, пер 1-й Вагонников, дом 38, 583 кв. м. для обслуживания и эксплуатации индивидуального жилого дома</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>69:40:0100081:18, Тверская обл, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 182, 24 кв. м. под гараж</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>69:40:0100119:45, Тверская область, г. Тверь, ул. Ударная, д. 9, 354 кв. м. Под комплексное жилищное строительство для организации земель общего пользования (проездов)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>69:40:0100077:18, Тверская область, г. Тверь, ул. Хромова, д. 60, 382 кв. м. Для обслуживания и эксплуатации индивидуального жилого дома</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>69:40:0100073:11, Тверская область, г. Тверь, проезд 2-й Седова, д. 34, 1 057 кв. м. под обслуживание и эксплуатацию индивидуального жилого дома</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>69:40:0100054:21, Тверская область, г. Тверь, ул. Планерная, д. 9, 1 005 кв. м. Под обслуживание и эксплуатацию жилого дома</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>69:40:0100057:15, Тверская область, г Тверь, пер Вагонников 1-й, д 40, 594,8 кв. м. под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>69:40:0100081:20, обл. Тверская, г. Тверь, автокооператив №4, гараж 139, 26,7 кв. м. Под гараж</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>69:40:0100119:46, Тверская обл, г Тверь, ул 2-я Красина, д 78, 2 612 кв. м. Под строительство универсама</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>69:40:0100082:11, Тверская область, г. Тверь, ул. Хромова, д. 19, 8 684 кв. м. Под многоквартирный дом</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>69:40:0100073:12, Тверская область, г. Тверь, проезд. 2-й Седова, д. 36, 1 031,4 кв. м. ПОД ИНДИВИДУАЛЬНОЕ ЖИЛИЩНОЕ СТРОИТЕЛЬСТВО</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>69:40:0100034:41, Тверская область, г. Тверь, ул. Планерная, 14 421 кв. м. под строительство многоквартирного дома</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>69:40:0100057:18, Тверская обл, г Тверь, ул Пригородная, д 5, 1 013,3 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>69:40:0100081:32, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ А/К № 4 НОМЕР ДОМА 202, 25,1 кв. м. ДЛЯ ГАРАЖНОГО СТРОИТЕЛЬСТВА</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>69:40:0100082:13, Тверская область, г. Тверь, ул. Хромова, д. 17, 13 926 кв. м. Под строительство 10-этажного 250-квартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>69:40:0100073:23, Тверская обл, г Тверь, проезд Седова 2-й, д 38, 56,7 кв. м. под опору ЛЭП</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>69:40:0100034:53, Тверская область, г. Тверь, ул. Планерная, д. 17, 1 652 кв. м. Земли общего пользования</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>69:40:0100057:35, Тверская область, г. Тверь, ул. Вагонников 1-я, д. 6, 434 кв. м. Для обслуживания и эксплуатации жилого дома</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>69:40:0100081:36, Тверская обл, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 253, 25,8 кв. м. Для обслуживания и эксплуатации гаража</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>69:40:0100082:14, Тверская область, г. Тверь, ул. Хромова, д. 19, 1 856,8 кв. м. ПОД СВОБОДНЫЕ ЗЕМЛИ ГОРОДСКОЙ ЗАСТРОЙКИ</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>69:40:0100073:203, Российская Федерация, Тверская область, Городской округ город Тверь, г. Тверь, проезд Седова 2-й, 665 кв. м. Земли городского запаса</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>69:40:0100054:3, Тверская область, г Тверь, ул Планерная, дом 15, 986 кв. м. ПОД ИНДИВИДУАЛЬНОЕ ЖИЛИЩНОЕ СТРОИТЕЛЬСТВО</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>69:40:0100057:36, Тверская область, г. Тверь, ул. Вагонников 1-я, д. 6, 575 кв. м. Для обслуживания и эксплуатации жилого дома</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>69:40:0100081:41, Тверская обл, г Тверь, а/к № 4 Заволжского района, гараж 225, 28 кв. м. ПОД СТРОИТЕЛЬСТВО ГАРАЖА</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>69:40:0100082:1031, , 2 155 кв. м. земельные участки (территориии) общего пользования</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>69:40:0100073:204, Российская Федерация, Тверская область, Городской округ город Тверь, г. Тверь, проезд Седова 2-й, 688 кв. м. Земли городского запаса</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>69:40:0100054:4, Тверская обл, г Тверь, ул Планерная, д 17, 996,3 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>69:40:0100057:7, Тверская область, г Тверь, ул 1-я Вагонников, д 12, 1 031 кв. м. Под индивидуальный жилой дом</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>69:40:0100081:42, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ А/К № 4 НОМЕР ДОМА 331, 23,2 кв. м. ПОД ГАРАЖНОЕ СТРОИТЕЛЬСТВО</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>69:40:0100084:31, Тверская область, г. Тверь, 16 532 кв. м. ПОД Ж/Д ВЕТКУ НА ВАС. МОХ</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>69:40:0100079:13, Тверская область, г. Тверь, ул. Хромова, д. 70, 572,1 кв. м. Под индивидуальное жилищное строительство</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>69:40:0100082:16, Тверская обл, г Тверь, ул Хромова, д 23, строение 1, 16 735 кв. м. ПОД ЖИЛОЙ ДОМ С НЕЖИЛЫМИ ПОМЕЩЕНИЯМИ</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>69:40:0100079:14, Тверская область, г Тверь, ул Хромова, д 68, 593,1 кв. м. Для обслуживания и эксплуатации жилого дома</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>69:40:0100084:19, Тверская область, г. Тверь, 2 039,2 кв. м. Земельные участки (территории) общего пользования</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>69:40:0100082:5, Тверская область, г Тверь, ул Хромова, д 21, 18 978,4 кв. м. под строительство 10-этажного 360-квартирного жилого дома</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>69:40:0100084:28, Тверская обл, г Тверь, ул Хромова, д 23, корп 1, 3 802,3 кв. м. -</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>69:40:0100082:18, Тверская обл, г Тверь, ул Хромова, 3 342,3 кв. м. Земли общего пользования</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>69:40:0100084:30, Тверская область, г. Тверь, ул. Луначарского, 4 821 кв. м. Для строительства комплекса автосервисного обслуживания</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>69:40:0100077:7, Тверская обл, р-н Калининский, г Тверь, ул Хромова, дом 62, 570,5 кв. м. Для эксплуатации и обслуживания индивидуального жилого дома</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>69:40:0100084:31, Тверская область, г. Тверь, 16 532 кв. м. ПОД Ж/Д ВЕТКУ НА ВАС. МОХ</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>69:40:0100079:15, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ УЛ. ХРОМОВА НОМЕР ДОМА 66, 581,8 кв. м. ДЛЯ ИНДИВИДУАЛЬНОГО ЖИЛИЩНОГО СТРОИТЕЛЬСТВА</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>69:40:0100084:1370, Тверская область, г. Тверь, ул. Луначарского, д. 20, 3 357 кв. м. бытовое обслуживание</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>69:40:0100079:16, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ УЛ. ХРОМОВА НОМЕР ДОМА 64, 583,1 кв. м. Под индивидуальный жилой дом</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>69:40:0100082:3, Тверская область, р-н. Калининский, г. Тверь, ул. Хромова, д. 19-Б, 836,5 кв. м. Под магазин</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>69:40:0100082:5, Тверская область, г Тверь, ул Хромова, д 21, 18 978,4 кв. м. под строительство 10-этажного 360-квартирного жилого дома</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>69:40:0100082:8, Тверская область, г. Тверь, ул. Хромова, 6 654,9 кв. м. ЗЕМЛИ ОБЩЕГО ПОЛЬЗОВАНИЯ ВНЕ КВАРТАЛА ЗАСТРОЙКИ (ТРОТУАР)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>69:40:0100082:10, Тверская обл, г Тверь, ул Хромова, д 19, 8 640,3 кв. м. для завершения строительства 320-квартирного 10-этажного жилого дома</t>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>69:40:0100073:206, Российская Федерация, Тверская область, Городской округ город Тверь, г. Тверь, проезд Седова 2-й, 128 кв. м. Земли городского запаса</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>69:40:0100034:40, Российская Федерация, Тверская область, г Тверь, ул Планерная, 13 747 кв. м. Под строительство многоквартирных домов</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>69:40:0100057:8, Тверская область, г Тверь, ул 1- я Вагонников, д 10, 979 кв. м. индивидуальный жилой дом</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>69:40:0100081:44, Тверская обл, г Тверь, а/к № 4 Заволжского района, гараж 143, 24,4 кв. м. ПОД СТРОИТЕЛЬСТВО ГАРАЖА</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>69:40:0100082:20, Тверская область, г. Тверь, ул. Хромова, д. 17, 2 163 кв. м. Объекты торговли (торговые центры, торгово-развлекательные центры (комплексы)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>69:40:0100073:208, Российская Федерация, Тверская область г.о. г Тверь, пр-д 2-й Седова, 666 кв. м. Для индивидуального жилищного строительства</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>69:40:0100034:52, Тверская область, г. Тверь, ул. Фрунзе, д. 24, к. 1, 1 622 кв. м. Земли общего пользования</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>69:40:0100057:9, Тверская область, г Тверь, ул 1-я Вагонников, дом 8, 977,8 кв. м. Под индивидуальный жилой дом</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>69:40:0100081:118, Тверская обл, г Тверь, А/к №4 (1-я Вагонников), гараж 110, 21 кв. м. ДЛЯ ОБСЛУЖИВАНИЯ И ЭКСПЛУАТАЦИИ ГАРАЖА</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>69:40:0100082:21, Тверская область, г. Тверь, ул. Хромова, д. 17, 629 кв. м. Свободные земли городской застройки</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>69:40:0100034:3, Тверская область, г. Тверь, ул. П. Савельевой, 17 030 кв. м. Под земли общего пользования</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>69:40:0100057:11, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ УЛ. 1-Я ВАГОННИКОВ НОМЕР ДОМА 4, 973,2 кв. м. ДЛЯ ОБСЛУЖИВАНИЯ И ЭКСПЛУАТАЦИИ ИНДИВИДУАЛЬНОГО ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>69:40:0100081:127, обл Тверская, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 224, 21 кв. м. Под строительство гаража</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>69:40:0100181:1, Тверская область, г. Тверь, ул. Паши Савельевой, д. 14, 3 467 кв. м. 12 этажный дом; разворотное кольцо трамвая</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>69:40:0100034:6, Тверская область, г. Тверь, пер. 1-й Вагонников, д. 43, 13 414 кв. м. Под спортивно-оздоровительный комплекс с гаражами в нижнем уровне</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>69:40:0100057:19, Российская Федерация, городской округ город Тверь, Тверская область, город Тверь, улица Пригородная, дом 9, 988,6 кв. м. Для обслуживания и эксплуатации жилого дома</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>69:40:0100081:159, обл Тверская, г Тверь, автогаражный кооператив № 4 Заволжского района, гараж №103, 21 кв. м. Под гараж</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>69:40:0100181:34, обл Тверская, г. Тверь, ул Паши Савельевой и пер Снайпера, дом 30/8, 1 173,4 кв. м. Для обслуживания и эксплуатации индивидуального жилого дома</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>69:40:0100034:55, Тверская область, г. Тверь, ул. Паши Савельевой, д. 27, Тверская область, г. Тверь, ул. Паши Савельевой, д. 27. Категория не установлена</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>69:40:0100057:20, Тверская область, г Тверь, ул Пригородная, д 11, 1 010 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>69:40:0100081:162, обл. Тверская, р-н Калининский, г. Тверь, автогаражный кооператив №4 Заволжского района, гараж №317, 33 кв. м. Под строительство гаража</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>69:40:0100181:35, Тверская область, г. Тверь, ул. Паши Савельевой, д. 32, 1 030,4 кв. м. Под индивидуальное жилищное строительство</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>69:40:0100073:9, Тверская область, г. Тверь, проезд. Седова 2-й, д. 30, 924,9 кв. м. Для индивидуального жилищного строительства</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>69:40:0100081:163, Тверская обл, г Тверь, автокооператив № 4 Заволжского района, гараж №193, 21 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>69:40:0100181:36, Тверская область, г Тверь, ул Паши Савельевой, д 34, 766,7 кв. м. ДЛЯ ОБСЛУЖИВАНИЯ И ЭКСПЛУАТАЦИИ ИНДИВИДУАЛЬНОГО ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>69:40:0100073:20, Тверская обл, г Тверь, проезд Седова 2-й, д 32-46, 1 369,73 кв. м. под земли общего пользования</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>69:40:0100081:164, Тверская обл, г Тверь, автокооператив №4 Заволжского района, гараж 31, 22 кв. м. ДЛЯ ГАРАЖНОГО СТРОИТЕЛЬСТВА</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>69:40:0100181:37, Тверская область, г Тверь, ул Луначарского, дом 3-б, 30 169 кв. м. под земли общего пользования</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>69:40:0100073:25, Тверская область, г. Тверь, проезд. 2-й Седова, 6 230 кв. м. под свободные земли городской застройки</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>69:40:0100081:170, обл. Тверская, г. Тверь, автокооператив № 4 Заволжского района, гараж №332, 20 кв. м. Под строительство гаража</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>69:40:0100181:1707, , 755 кв. м. земельные участки (территориии) общего пользования</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>69:40:0100073:84, Тверская область, г. Тверь, проезд. Седова 2-й, д. 32, 125 кв. м. Для обслуживания и эксплуатации жилого дома</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>69:40:0100081:171, обл. Тверская, р-н Калининский, г. Тверь, ул. 1-я Вагонников, автогаражный кооператив №4 Заволжского района, гараж №218, 22 кв. м. Под строительство гаража</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>69:40:0100180:24, Тверская область, г. Тверь, ул. Хромова, дороги, 13 127,7 кв. м. под ж/д ветку</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>69:40:0100073:207, Российская Федерация, Тверская область г.о. г Тверь, пр-д 2-й Седова, д 32, 412 кв. м. Для обслуживания и эксплуатации жилого дома, Земли городского запаса</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>69:40:0100081:192, Тверская обл, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 330, 21 кв. м. ДЛЯ ЭКСПЛУАТАЦИИ И ОБСЛУЖИВАНИЯ ГАРАЖА</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>69:40:0100180:34, Тверская обл, г Тверь, ул Паши Савельевой, дом 17, 3 560 кв. м. под здание общежития</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>69:40:0100034:54, Тверская область, г. Тверь, ул. Паши Савельевой, д. 27, 3 380 кв. м. Под свободные земли городской застройки</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>69:40:0100081:19, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ А/К № 4 НОМЕР ДОМА 87, 27,7 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>69:40:0100180:60, Тверская обл, г Тверь, ул Хромова, 1 835,7 кв. м. под земли общего пользования</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>69:40:0100034:56, Тверская область, г. Тверь, ул. Паши Савельевой, д. 27, Тверская область, г. Тверь, ул. Паши Савельевой, д. 27. Категория не установлена</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>69:40:0100081:22, Тверская область, г. Тверь, Заволжский район, автокооператив № 4, гараж 383, 25,3 кв. м. ДЛЯ ГАРАЖНОГО СТРОИТЕЛЬСТВА</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>69:40:0100180:4566, Тверская область, г. Тверь, ул. Хромова, 164 кв. м. Земли общего пользования</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>69:40:0100034:70, Тверская область, г. Тверь, ул. Седова, 6 075 кв. м. Под земли общего пользования</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>69:40:0100081:29, обл Тверская, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 238, 27,3 кв. м. Для гаражного строительства</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>69:40:0100180:4568, Тверская область, г. Тверь, ул. Хромова, 31 202 кв. м. Земли общего пользования</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>69:40:0100073:1, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ УЛ. СЕДОВА НОМЕР ДОМА 47, 783,7 кв. м. ДЛЯ ОБСЛУЖИВАНИЯ И ЭКСПЛУАТАЦИИ ЖИЛОГО ДОМА</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>69:40:0100081:30, Тверская обл, г Тверь, а/к № 4 Заволжского района, гараж 160, 26,8 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>69:40:0100180:4569, Тверская область, г. Тверь, ул. Хромова, д. 15, 3 281 кв. м. Под обслуживание и эксплуатацию многоквартирного жилого дома с нежилыми помещениями для последующего перехода в общую долевую собственность в составе общего имущества многоквартирного жилого дома</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>69:40:0100034:63, Тверская область, г. Тверь, ул. Паши Савельевой, д. 44, 7 778 кв. м. Под размещение временной автостоянки</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>69:40:0100081:39, Тверская область, г Тверь, а/к N4 Заволжского района, гараж 356, 24,9 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>69:40:0100034:64, Тверская область, г. Тверь, ул. Паши Савельевой, д. 44, 4 907 кв. м. Под земли общего пользования</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>69:40:0100081:43, Тверская область, г Тверь, р-н Заволжский А/К № 4, гараж 258, 28 кв. м. ПОД СТРОИТЕЛЬСТВО ГАРАЖА</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>69:40:0100034:68, Тверская область, г. Тверь, ул. Седова, 2 312 кв. м. Свободные земли городской застройки</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>69:40:0100081:67, Г. ТВЕРЬ Р-Н ЗАВОЛЖСКИЙ А/К № 4 НОМЕР ДОМА 375, 26 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>69:40:0100081:77, Тверская область, г Тверь, а/к № 4, гараж 373, 23 кв. м. для обслуживания и эксплуатации гаража</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>69:40:0100081:106, обл Тверская, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 386, 24 кв. м. Для гаражного строительства</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>69:40:0100081:114, обл Тверская, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 372, 20 кв. м. Под строительство гаража</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>69:40:0100081:124, Тверская обл, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 349, 22 кв. м. ДЛЯ ЭКСПЛУАТАЦИИ И ОБСЛУЖИВАНИЯ ГАРАЖА</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>69:40:0100081:125, обл.Тверская, г.Тверь, а/к № 4 Заволжского района, гараж №359, 18 кв. м. Под гараж</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>69:40:0100081:126, Тверская область, г Тверь, а/к № 4 (1-я Вагонников), гараж 367, 19 кв. м. Для эксплуатации и обслуживания гаража</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>69:40:0100081:139, обл Тверская, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 364, 26 кв. м. Для эксплуатации и обслуживания гаража</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>69:40:0100081:147, Тверская обл, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 124, 24 кв. м. ПОД СТРОИТЕЛЬСТВО ГАРАЖЕЙ</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>69:40:0100081:165, обл. Тверская, г. Тверь, а/к № 4 Заволжского района, гараж № 270, 23 кв. м. Под гараж</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>69:40:0100081:202, обл. Тверская, г.Тверь, автокооператив №4 Заволжского района, гараж №245, 19 кв. м. Под гараж</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>69:40:0100081:213, Тверская обл, г Тверь, кооператив №4 по строительству и эксплуатации коллективных гаражей, стоянок для автомобилей индивидуальных владельцев, гараж 203, 23 кв. м. ДЛЯ ЭКСПЛУАТАЦИИ И ОБСЛУЖИВАНИЯ ГАРАЖА</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>69:40:0100081:214, обл.Тверская, г.Тверь, автогаражный кооператив №4 в Заволжском районе, гараж №205, 22 кв. м. Под строительство гаража</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>69:40:0100081:8, Обл.Тверская, г.Тверь, от пер.Вагонников, дом 66, 2 839 кв. м. Обслуживание автотранспорта</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>69:40:0100081:372, Тверская обл, р-н Калининский, г Тверь, тер А/к N4 (1-я Вагонников), гараж 360, 26 кв. м. ПОД ГАРАЖ</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>69:40:0100090:3, обл. Тверская, р-н Калининский, г. Тверь, Завалжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №24, обл. Тверская, р-н Калининский, г. Тверь, Завалжский р-н, ЭСК "ВЛ-35кВ города Твери", опора №24. Категория не установлена</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>69:40:0100090:9, Тверская область, 17 047 кв. м. под ж/д ветку</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>69:40:0100090:28, местоположение установлено относительно ориентира, расположенного в границах участка. Почтовый адрес ориентира: Тверская область, г. Тверь, ул. Ударная, 5 462 кв. м. Многоэтажная жилая застройка (высотная застройка)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>69:40:0100090:29, местоположение установлено относительно ориентира, расположенного в границах участка. Почтовый адрес ориентира: Тверская область, г. Тверь, ул. Ударная, 6 116 кв. м. Земли городского запаса</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>69:40:0100090:31, местоположение установлено относительно ориентира, расположенного в границах участка. Почтовый адрес ориентира: Тверская область, г. Тверь, ул. Ударная, 2 513 кв. м. Земли городского запаса</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">, , . </t>
         </is>
       </c>
     </row>
